--- a/public/downloads/Template Files/Journal Entry List result.xlsx
+++ b/public/downloads/Template Files/Journal Entry List result.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF9A5E1-494B-4A95-A984-C605DED68688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Journal Entry List result" sheetId="3" r:id="rId1"/>
+    <sheet name="Journal Entry List Result" sheetId="3" r:id="rId1"/>
     <sheet name="Raw Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
@@ -23,8 +24,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="Query - TJournalEntryList?OrderBy=TransactionDate%20desc&amp;IgnoreDates=true&amp;Search=Deleted" description="Connection to the 'TJournalEntryList?OrderBy=TransactionDate%20desc&amp;IgnoreDates=true&amp;Search=Deleted' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Query - TJournalEntryList?OrderBy=TransactionDate%20desc&amp;IgnoreDates=true&amp;Search=Deleted" description="Connection to the 'TJournalEntryList?OrderBy=TransactionDate%20desc&amp;IgnoreDates=true&amp;Search=Deleted' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=&quot;TJournalEntryList?OrderBy=TransactionDate%20desc&amp;IgnoreDates=true&amp;Search=Deleted&quot;;Extended Properties=&quot;&quot;" command="SELECT * FROM [TJournalEntryList?OrderBy=TransactionDate%20desc&amp;IgnoreDates=true&amp;Search=Deleted]"/>
   </connection>
 </connections>
@@ -592,7 +593,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
@@ -637,11 +638,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1342,7 +1342,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{00000000-0016-0000-0100-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="47">
     <queryTableFields count="46">
       <queryTableField id="1" name="T.GlobalRef" tableColumnId="47"/>
@@ -1397,57 +1397,57 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TJournalEntryList_OrderBy_TransactionDate_20desc_IgnoreDates_true_Search_Deleted" displayName="TJournalEntryList_OrderBy_TransactionDate_20desc_IgnoreDates_true_Search_Deleted" ref="A1:AT26" tableType="queryTable" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
-  <autoFilter ref="A1:AT26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TJournalEntryList_OrderBy_TransactionDate_20desc_IgnoreDates_true_Search_Deleted" displayName="TJournalEntryList_OrderBy_TransactionDate_20desc_IgnoreDates_true_Search_Deleted" ref="A1:AT26" tableType="queryTable" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+  <autoFilter ref="A1:AT26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="46">
-    <tableColumn id="47" uniqueName="47" name="T.GlobalRef" queryTableFieldId="1" dataDxfId="45"/>
-    <tableColumn id="2" uniqueName="2" name="T.GJID" queryTableFieldId="2" dataDxfId="44"/>
-    <tableColumn id="3" uniqueName="3" name="T.TransactionDate" queryTableFieldId="3" dataDxfId="43"/>
-    <tableColumn id="4" uniqueName="4" name="T.TransactionNo" queryTableFieldId="4" dataDxfId="42"/>
-    <tableColumn id="5" uniqueName="5" name="T.Amount" queryTableFieldId="5" dataDxfId="41"/>
-    <tableColumn id="6" uniqueName="6" name="T.TaxSelect" queryTableFieldId="6" dataDxfId="40"/>
-    <tableColumn id="7" uniqueName="7" name="T.Memo" queryTableFieldId="7" dataDxfId="39"/>
-    <tableColumn id="8" uniqueName="8" name="T.Approved" queryTableFieldId="8" dataDxfId="38"/>
-    <tableColumn id="9" uniqueName="9" name="T.Deleted" queryTableFieldId="9" dataDxfId="37"/>
-    <tableColumn id="10" uniqueName="10" name="T.TypeOfBasedOn" queryTableFieldId="10" dataDxfId="36"/>
-    <tableColumn id="11" uniqueName="11" name="T.FrequencyValues" queryTableFieldId="11" dataDxfId="35"/>
-    <tableColumn id="12" uniqueName="12" name="T.CopyStartDate" queryTableFieldId="12" dataDxfId="34"/>
-    <tableColumn id="13" uniqueName="13" name="T.CopyFinishDate" queryTableFieldId="13" dataDxfId="33"/>
-    <tableColumn id="14" uniqueName="14" name="T.RepeatedFrom" queryTableFieldId="14" dataDxfId="32"/>
-    <tableColumn id="15" uniqueName="15" name="T.EditedFlag" queryTableFieldId="15" dataDxfId="31"/>
-    <tableColumn id="16" uniqueName="16" name="T.msTimeStamp" queryTableFieldId="16" dataDxfId="30"/>
-    <tableColumn id="17" uniqueName="17" name="T.msUpdateSiteCode" queryTableFieldId="17" dataDxfId="29"/>
-    <tableColumn id="18" uniqueName="18" name="T.GlobalRef_1" queryTableFieldId="18" dataDxfId="28"/>
-    <tableColumn id="19" uniqueName="19" name="T.GJDID" queryTableFieldId="19" dataDxfId="27"/>
-    <tableColumn id="20" uniqueName="20" name="T.GJID_1" queryTableFieldId="20" dataDxfId="26"/>
-    <tableColumn id="21" uniqueName="21" name="T.AccountName" queryTableFieldId="21" dataDxfId="25"/>
-    <tableColumn id="22" uniqueName="22" name="T.AccountID" queryTableFieldId="22" dataDxfId="24"/>
-    <tableColumn id="23" uniqueName="23" name="T.AccountNumber" queryTableFieldId="23" dataDxfId="23"/>
-    <tableColumn id="24" uniqueName="24" name="T.DebitAmount" queryTableFieldId="24" dataDxfId="22"/>
-    <tableColumn id="25" uniqueName="25" name="T.DebitAmountInc" queryTableFieldId="25" dataDxfId="21"/>
-    <tableColumn id="26" uniqueName="26" name="T.CreditAmount" queryTableFieldId="26" dataDxfId="20"/>
-    <tableColumn id="27" uniqueName="27" name="T.CreditAmountInc" queryTableFieldId="27" dataDxfId="19"/>
-    <tableColumn id="28" uniqueName="28" name="T.TaxCode" queryTableFieldId="28" dataDxfId="18"/>
-    <tableColumn id="29" uniqueName="29" name="T.TaxCodeID" queryTableFieldId="29" dataDxfId="17"/>
-    <tableColumn id="30" uniqueName="30" name="T.TaxRate" queryTableFieldId="30" dataDxfId="16"/>
-    <tableColumn id="31" uniqueName="31" name="T.TaxAmount" queryTableFieldId="31" dataDxfId="15"/>
-    <tableColumn id="32" uniqueName="32" name="T.Memo_1" queryTableFieldId="32" dataDxfId="14"/>
-    <tableColumn id="33" uniqueName="33" name="T.ManCOGSAdjustmentMemo" queryTableFieldId="33" dataDxfId="13"/>
-    <tableColumn id="34" uniqueName="34" name="T.ClientName" queryTableFieldId="34" dataDxfId="12"/>
-    <tableColumn id="35" uniqueName="35" name="T.ClientID" queryTableFieldId="35" dataDxfId="11"/>
-    <tableColumn id="36" uniqueName="36" name="T.ClassName" queryTableFieldId="36" dataDxfId="10"/>
-    <tableColumn id="37" uniqueName="37" name="T.ClassID" queryTableFieldId="37" dataDxfId="9"/>
-    <tableColumn id="38" uniqueName="38" name="T.Reconciled" queryTableFieldId="38" dataDxfId="8"/>
-    <tableColumn id="39" uniqueName="39" name="T.EditedFlag_1" queryTableFieldId="39" dataDxfId="7"/>
-    <tableColumn id="40" uniqueName="40" name="T.EmployeeName" queryTableFieldId="40" dataDxfId="6"/>
-    <tableColumn id="41" uniqueName="41" name="T.msTimeStamp_1" queryTableFieldId="41" dataDxfId="5"/>
-    <tableColumn id="42" uniqueName="42" name="T.Deleted_1" queryTableFieldId="42" dataDxfId="4"/>
-    <tableColumn id="43" uniqueName="43" name="T.msUpdateSiteCode_1" queryTableFieldId="43" dataDxfId="3"/>
-    <tableColumn id="44" uniqueName="44" name="T.EmployeeId" queryTableFieldId="44" dataDxfId="2"/>
-    <tableColumn id="45" uniqueName="45" name="T.AreaCode" queryTableFieldId="45" dataDxfId="1"/>
-    <tableColumn id="46" uniqueName="46" name="T.LinesOrder" queryTableFieldId="46" dataDxfId="0"/>
+    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" uniqueName="47" name="T.GlobalRef" queryTableFieldId="1" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="T.GJID" queryTableFieldId="2" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="T.TransactionDate" queryTableFieldId="3" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="T.TransactionNo" queryTableFieldId="4" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="T.Amount" queryTableFieldId="5" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="T.TaxSelect" queryTableFieldId="6" dataDxfId="40"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="T.Memo" queryTableFieldId="7" dataDxfId="39"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="8" name="T.Approved" queryTableFieldId="8" dataDxfId="38"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="9" name="T.Deleted" queryTableFieldId="9" dataDxfId="37"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="10" name="T.TypeOfBasedOn" queryTableFieldId="10" dataDxfId="36"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="11" name="T.FrequencyValues" queryTableFieldId="11" dataDxfId="35"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="12" name="T.CopyStartDate" queryTableFieldId="12" dataDxfId="34"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="13" name="T.CopyFinishDate" queryTableFieldId="13" dataDxfId="33"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" uniqueName="14" name="T.RepeatedFrom" queryTableFieldId="14" dataDxfId="32"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" uniqueName="15" name="T.EditedFlag" queryTableFieldId="15" dataDxfId="31"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" uniqueName="16" name="T.msTimeStamp" queryTableFieldId="16" dataDxfId="30"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" uniqueName="17" name="T.msUpdateSiteCode" queryTableFieldId="17" dataDxfId="29"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="18" name="T.GlobalRef_1" queryTableFieldId="18" dataDxfId="28"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" uniqueName="19" name="T.GJDID" queryTableFieldId="19" dataDxfId="27"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" uniqueName="20" name="T.GJID_1" queryTableFieldId="20" dataDxfId="26"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" uniqueName="21" name="T.AccountName" queryTableFieldId="21" dataDxfId="25"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" uniqueName="22" name="T.AccountID" queryTableFieldId="22" dataDxfId="24"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" uniqueName="23" name="T.AccountNumber" queryTableFieldId="23" dataDxfId="23"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" uniqueName="24" name="T.DebitAmount" queryTableFieldId="24" dataDxfId="22"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" uniqueName="25" name="T.DebitAmountInc" queryTableFieldId="25" dataDxfId="21"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" uniqueName="26" name="T.CreditAmount" queryTableFieldId="26" dataDxfId="20"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" uniqueName="27" name="T.CreditAmountInc" queryTableFieldId="27" dataDxfId="19"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" uniqueName="28" name="T.TaxCode" queryTableFieldId="28" dataDxfId="18"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" uniqueName="29" name="T.TaxCodeID" queryTableFieldId="29" dataDxfId="17"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" uniqueName="30" name="T.TaxRate" queryTableFieldId="30" dataDxfId="16"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" uniqueName="31" name="T.TaxAmount" queryTableFieldId="31" dataDxfId="15"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" uniqueName="32" name="T.Memo_1" queryTableFieldId="32" dataDxfId="14"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" uniqueName="33" name="T.ManCOGSAdjustmentMemo" queryTableFieldId="33" dataDxfId="13"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" uniqueName="34" name="T.ClientName" queryTableFieldId="34" dataDxfId="12"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" uniqueName="35" name="T.ClientID" queryTableFieldId="35" dataDxfId="11"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" uniqueName="36" name="T.ClassName" queryTableFieldId="36" dataDxfId="10"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" uniqueName="37" name="T.ClassID" queryTableFieldId="37" dataDxfId="9"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" uniqueName="38" name="T.Reconciled" queryTableFieldId="38" dataDxfId="8"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" uniqueName="39" name="T.EditedFlag_1" queryTableFieldId="39" dataDxfId="7"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" uniqueName="40" name="T.EmployeeName" queryTableFieldId="40" dataDxfId="6"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" uniqueName="41" name="T.msTimeStamp_1" queryTableFieldId="41" dataDxfId="5"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" uniqueName="42" name="T.Deleted_1" queryTableFieldId="42" dataDxfId="4"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" uniqueName="43" name="T.msUpdateSiteCode_1" queryTableFieldId="43" dataDxfId="3"/>
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" uniqueName="44" name="T.EmployeeId" queryTableFieldId="44" dataDxfId="2"/>
+    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" uniqueName="45" name="T.AreaCode" queryTableFieldId="45" dataDxfId="1"/>
+    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" uniqueName="46" name="T.LinesOrder" queryTableFieldId="46" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1713,7 +1713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1732,600 +1732,600 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>44914</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="4">
-        <v>65</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="3">
+        <v>65</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="6">
-        <v>0</v>
-      </c>
-      <c r="G2" s="6">
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>44914</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>64</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="6">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6">
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>44909</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>62</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="6">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>44904</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>44816</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>60</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6">
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>44846</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>44905</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>61</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>44846</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>44905</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>61</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6">
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>44846</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>44905</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>59</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>44846</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>44905</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>59</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="6">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6">
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>44846</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>44905</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>58</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>44846</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>44905</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>58</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="6">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6">
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>44690</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>44809</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>56</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="6">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6">
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
         <v>700</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>44690</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>44809</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>56</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>700</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>44678</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>55</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="6">
-        <v>0</v>
-      </c>
-      <c r="G14" s="6">
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
         <v>500</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>44678</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>55</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <v>550</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>44510</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>44480</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>53</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="6">
-        <v>0</v>
-      </c>
-      <c r="G16" s="6">
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
         <v>219.78</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>44510</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>44480</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>53</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <v>219.78</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>44510</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>44480</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>52</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="6">
-        <v>0</v>
-      </c>
-      <c r="G18" s="6">
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
         <v>181.82</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>44510</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>44480</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>52</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <v>181.82</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <v>44510</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>44480</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>51</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="6">
-        <v>0</v>
-      </c>
-      <c r="G20" s="6">
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
         <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>44510</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>44480</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>51</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <v>200</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>44502</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>44238</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>43</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="6">
-        <v>0</v>
-      </c>
-      <c r="G22" s="6">
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
         <v>500</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>44502</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>44238</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>43</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <v>500</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <v>44494</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>38</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F24" s="6">
-        <v>0</v>
-      </c>
-      <c r="G24" s="6">
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5">
         <v>500</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <v>44494</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>37</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F25" s="6">
-        <v>0</v>
-      </c>
-      <c r="G25" s="6">
+      <c r="F25" s="5">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5">
         <v>600</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <v>44494</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>37</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="5">
         <v>600</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2335,11 +2335,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AT26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2953,3082 +2953,3082 @@
       </c>
     </row>
     <row r="5" spans="1:46" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="1">
         <v>60</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L5" s="3" t="s">
+      <c r="H5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="O5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P5" s="3" t="s">
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="Q5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="R5" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="S5" s="3">
+      <c r="S5" s="1">
         <v>114</v>
       </c>
-      <c r="T5" s="3">
+      <c r="T5" s="1">
         <v>60</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="U5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="V5" s="3">
+      <c r="V5" s="1">
         <v>179</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="W5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="3" t="s">
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AC5" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="3" t="s">
+      <c r="AC5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AG5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="3" t="s">
+      <c r="AG5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AK5" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN5" s="3" t="s">
+      <c r="AK5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AO5" s="3" t="s">
+      <c r="AO5" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AP5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="3" t="s">
+      <c r="AP5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AR5" s="3">
+      <c r="AR5" s="1">
         <v>2</v>
       </c>
-      <c r="AS5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AT5" s="3">
+      <c r="AS5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT5" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:46" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="1">
         <v>58</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L6" s="3" t="s">
+      <c r="H6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
-      <c r="O6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P6" s="3" t="s">
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="Q6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="R6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="S6" s="3">
+      <c r="S6" s="1">
         <v>110</v>
       </c>
-      <c r="T6" s="3">
+      <c r="T6" s="1">
         <v>58</v>
       </c>
-      <c r="U6" s="3" t="s">
+      <c r="U6" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="V6" s="3">
+      <c r="V6" s="1">
         <v>3</v>
       </c>
-      <c r="W6" s="3" t="s">
+      <c r="W6" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="X6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="3" t="s">
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AC6" s="3">
+      <c r="AC6" s="1">
         <v>19</v>
       </c>
-      <c r="AD6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="3" t="s">
+      <c r="AD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AG6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="3" t="s">
+      <c r="AG6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AK6" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN6" s="3" t="s">
+      <c r="AK6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AO6" s="3" t="s">
+      <c r="AO6" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AP6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="3" t="s">
+      <c r="AP6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AR6" s="3">
+      <c r="AR6" s="1">
         <v>2</v>
       </c>
-      <c r="AS6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AT6" s="3">
+      <c r="AS6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT6" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:46" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="1">
         <v>58</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L7" s="3" t="s">
+      <c r="H7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P7" s="3" t="s">
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="Q7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="R7" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="S7" s="3">
+      <c r="S7" s="1">
         <v>111</v>
       </c>
-      <c r="T7" s="3">
+      <c r="T7" s="1">
         <v>58</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="U7" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="V7" s="3">
+      <c r="V7" s="1">
         <v>47</v>
       </c>
-      <c r="W7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="X7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="3" t="s">
+      <c r="W7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="X7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AC7" s="3">
+      <c r="AC7" s="1">
         <v>5</v>
       </c>
-      <c r="AD7" s="3">
+      <c r="AD7" s="1">
         <v>0.1</v>
       </c>
-      <c r="AE7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="3" t="s">
+      <c r="AE7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AG7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="3" t="s">
+      <c r="AG7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AK7" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN7" s="3" t="s">
+      <c r="AK7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AO7" s="3" t="s">
+      <c r="AO7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AP7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="3" t="s">
+      <c r="AP7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AR7" s="3">
+      <c r="AR7" s="1">
         <v>2</v>
       </c>
-      <c r="AS7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AT7" s="3">
+      <c r="AS7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT7" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:46" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="1">
         <v>59</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L8" s="3" t="s">
+      <c r="H8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="M8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P8" s="3" t="s">
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="Q8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="R8" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="S8" s="3">
+      <c r="S8" s="1">
         <v>112</v>
       </c>
-      <c r="T8" s="3">
+      <c r="T8" s="1">
         <v>59</v>
       </c>
-      <c r="U8" s="3" t="s">
+      <c r="U8" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="V8" s="3">
+      <c r="V8" s="1">
         <v>3</v>
       </c>
-      <c r="W8" s="3" t="s">
+      <c r="W8" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="X8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="3" t="s">
+      <c r="X8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AC8" s="1">
         <v>19</v>
       </c>
-      <c r="AD8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="3" t="s">
+      <c r="AD8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AG8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="3" t="s">
+      <c r="AG8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AK8" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN8" s="3" t="s">
+      <c r="AK8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AO8" s="3" t="s">
+      <c r="AO8" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AP8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="3" t="s">
+      <c r="AP8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AR8" s="3">
+      <c r="AR8" s="1">
         <v>2</v>
       </c>
-      <c r="AS8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AT8" s="3">
+      <c r="AS8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT8" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:46" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="1">
         <v>59</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L9" s="3" t="s">
+      <c r="H9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P9" s="3" t="s">
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="Q9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="R9" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="S9" s="3">
+      <c r="S9" s="1">
         <v>113</v>
       </c>
-      <c r="T9" s="3">
+      <c r="T9" s="1">
         <v>59</v>
       </c>
-      <c r="U9" s="3" t="s">
+      <c r="U9" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="V9" s="3">
+      <c r="V9" s="1">
         <v>47</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="X9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="3" t="s">
+      <c r="W9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AC9" s="1">
         <v>5</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AD9" s="1">
         <v>0.1</v>
       </c>
-      <c r="AE9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="3" t="s">
+      <c r="AE9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AG9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="3" t="s">
+      <c r="AG9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AK9" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN9" s="3" t="s">
+      <c r="AK9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AO9" s="3" t="s">
+      <c r="AO9" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AP9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="3" t="s">
+      <c r="AP9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AR9" s="3">
+      <c r="AR9" s="1">
         <v>2</v>
       </c>
-      <c r="AS9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AT9" s="3">
+      <c r="AS9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT9" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:46" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="1">
         <v>61</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L10" s="3" t="s">
+      <c r="H10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P10" s="3" t="s">
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="Q10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="R10" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="S10" s="3">
+      <c r="S10" s="1">
         <v>115</v>
       </c>
-      <c r="T10" s="3">
+      <c r="T10" s="1">
         <v>61</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="U10" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="V10" s="3">
+      <c r="V10" s="1">
         <v>3</v>
       </c>
-      <c r="W10" s="3" t="s">
+      <c r="W10" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="X10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="3" t="s">
+      <c r="X10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AC10" s="1">
         <v>19</v>
       </c>
-      <c r="AD10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="3" t="s">
+      <c r="AD10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AG10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="3" t="s">
+      <c r="AG10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AK10" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN10" s="3" t="s">
+      <c r="AK10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AO10" s="3" t="s">
+      <c r="AO10" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AP10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ10" s="3" t="s">
+      <c r="AP10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AR10" s="3">
+      <c r="AR10" s="1">
         <v>2</v>
       </c>
-      <c r="AS10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AT10" s="3">
+      <c r="AS10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT10" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:46" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="1">
         <v>61</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L11" s="3" t="s">
+      <c r="H11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="M11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N11" s="3">
-        <v>0</v>
-      </c>
-      <c r="O11" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P11" s="3" t="s">
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="Q11" s="3" t="s">
+      <c r="Q11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="R11" s="3" t="s">
+      <c r="R11" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="S11" s="3">
+      <c r="S11" s="1">
         <v>116</v>
       </c>
-      <c r="T11" s="3">
+      <c r="T11" s="1">
         <v>61</v>
       </c>
-      <c r="U11" s="3" t="s">
+      <c r="U11" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="V11" s="3">
+      <c r="V11" s="1">
         <v>47</v>
       </c>
-      <c r="W11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="X11" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="3" t="s">
+      <c r="W11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="X11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AC11" s="3">
+      <c r="AC11" s="1">
         <v>5</v>
       </c>
-      <c r="AD11" s="3">
+      <c r="AD11" s="1">
         <v>0.1</v>
       </c>
-      <c r="AE11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="3" t="s">
+      <c r="AE11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AG11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="3" t="s">
+      <c r="AG11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AK11" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN11" s="3" t="s">
+      <c r="AK11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AO11" s="3" t="s">
+      <c r="AO11" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AP11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="3" t="s">
+      <c r="AP11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AR11" s="3">
+      <c r="AR11" s="1">
         <v>2</v>
       </c>
-      <c r="AS11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AT11" s="3">
+      <c r="AS11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT11" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:46" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="1">
         <v>56</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L12" s="3" t="s">
+      <c r="G12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="M12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P12" s="3" t="s">
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="Q12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="R12" s="3" t="s">
+      <c r="R12" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="S12" s="3">
+      <c r="S12" s="1">
         <v>106</v>
       </c>
-      <c r="T12" s="3">
+      <c r="T12" s="1">
         <v>56</v>
       </c>
-      <c r="U12" s="3" t="s">
+      <c r="U12" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="V12" s="3">
+      <c r="V12" s="1">
         <v>3</v>
       </c>
-      <c r="W12" s="3" t="s">
+      <c r="W12" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="X12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="3">
+      <c r="X12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="1">
         <v>700</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AA12" s="1">
         <v>700</v>
       </c>
-      <c r="AB12" s="3" t="s">
+      <c r="AB12" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AC12" s="1">
         <v>19</v>
       </c>
-      <c r="AD12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="3" t="s">
+      <c r="AD12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AG12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="3" t="s">
+      <c r="AG12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AK12" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL12" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN12" s="3" t="s">
+      <c r="AK12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AO12" s="3" t="s">
+      <c r="AO12" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AP12" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ12" s="3" t="s">
+      <c r="AP12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AR12" s="3">
+      <c r="AR12" s="1">
         <v>2</v>
       </c>
-      <c r="AS12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AT12" s="3">
+      <c r="AS12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT12" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:46" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="1">
         <v>56</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L13" s="3" t="s">
+      <c r="G13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="M13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N13" s="3">
-        <v>0</v>
-      </c>
-      <c r="O13" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P13" s="3" t="s">
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P13" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="Q13" s="3" t="s">
+      <c r="Q13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="R13" s="3" t="s">
+      <c r="R13" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="S13" s="3">
+      <c r="S13" s="1">
         <v>107</v>
       </c>
-      <c r="T13" s="3">
+      <c r="T13" s="1">
         <v>56</v>
       </c>
-      <c r="U13" s="3" t="s">
+      <c r="U13" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="V13" s="3">
+      <c r="V13" s="1">
         <v>207</v>
       </c>
-      <c r="W13" s="3" t="s">
+      <c r="W13" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="X13" s="3">
+      <c r="X13" s="1">
         <v>700</v>
       </c>
-      <c r="Y13" s="3">
+      <c r="Y13" s="1">
         <v>700</v>
       </c>
-      <c r="Z13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="3" t="s">
+      <c r="Z13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AC13" s="3">
+      <c r="AC13" s="1">
         <v>19</v>
       </c>
-      <c r="AD13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="3" t="s">
+      <c r="AD13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="AG13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="3" t="s">
+      <c r="AG13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AK13" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL13" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM13" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN13" s="3" t="s">
+      <c r="AK13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AO13" s="3" t="s">
+      <c r="AO13" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AP13" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ13" s="3" t="s">
+      <c r="AP13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AR13" s="3">
+      <c r="AR13" s="1">
         <v>2</v>
       </c>
-      <c r="AS13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AT13" s="3">
+      <c r="AS13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT13" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:46" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="1">
         <v>55</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L14" s="3" t="s">
+      <c r="G14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P14" s="3" t="s">
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P14" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="R14" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="1">
         <v>104</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="1">
         <v>55</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="U14" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="1">
         <v>49</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3">
+      <c r="W14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="X14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="1">
         <v>500</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AA14" s="1">
         <v>550</v>
       </c>
-      <c r="AB14" s="3" t="s">
+      <c r="AB14" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AC14" s="1">
         <v>5</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AD14" s="1">
         <v>0.1</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AE14" s="1">
         <v>50</v>
       </c>
-      <c r="AF14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="3" t="s">
+      <c r="AF14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AK14" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL14" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM14" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN14" s="3" t="s">
+      <c r="AK14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN14" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AO14" s="3" t="s">
+      <c r="AO14" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="AP14" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ14" s="3" t="s">
+      <c r="AP14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AR14" s="3">
+      <c r="AR14" s="1">
         <v>2</v>
       </c>
-      <c r="AS14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AT14" s="3">
+      <c r="AS14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT14" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:46" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="1">
         <v>55</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L15" s="3" t="s">
+      <c r="G15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P15" s="3" t="s">
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P15" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="Q15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="R15" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="S15" s="3">
+      <c r="S15" s="1">
         <v>105</v>
       </c>
-      <c r="T15" s="3">
+      <c r="T15" s="1">
         <v>55</v>
       </c>
-      <c r="U15" s="3" t="s">
+      <c r="U15" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="V15" s="3">
+      <c r="V15" s="1">
         <v>3</v>
       </c>
-      <c r="W15" s="3" t="s">
+      <c r="W15" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="X15" s="3">
+      <c r="X15" s="1">
         <v>550</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Y15" s="1">
         <v>550</v>
       </c>
-      <c r="Z15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="3" t="s">
+      <c r="Z15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AC15" s="1">
         <v>19</v>
       </c>
-      <c r="AD15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="3" t="s">
+      <c r="AD15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AG15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="3" t="s">
+      <c r="AG15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AK15" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL15" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM15" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN15" s="3" t="s">
+      <c r="AK15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN15" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AO15" s="3" t="s">
+      <c r="AO15" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="AP15" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ15" s="3" t="s">
+      <c r="AP15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AR15" s="3">
+      <c r="AR15" s="1">
         <v>2</v>
       </c>
-      <c r="AS15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AT15" s="3">
+      <c r="AS15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT15" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:46" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="1">
         <v>51</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H16" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L16" s="3" t="s">
+      <c r="G16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="M16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N16" s="3">
-        <v>0</v>
-      </c>
-      <c r="O16" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P16" s="3" t="s">
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P16" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="Q16" s="3" t="s">
+      <c r="Q16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="R16" s="3" t="s">
+      <c r="R16" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="S16" s="3">
+      <c r="S16" s="1">
         <v>96</v>
       </c>
-      <c r="T16" s="3">
+      <c r="T16" s="1">
         <v>51</v>
       </c>
-      <c r="U16" s="3" t="s">
+      <c r="U16" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="V16" s="3">
+      <c r="V16" s="1">
         <v>90</v>
       </c>
-      <c r="W16" s="3" t="s">
+      <c r="W16" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="X16" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="3">
+      <c r="X16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="1">
         <v>200</v>
       </c>
-      <c r="AA16" s="3">
+      <c r="AA16" s="1">
         <v>200</v>
       </c>
-      <c r="AB16" s="3" t="s">
+      <c r="AB16" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AC16" s="3">
+      <c r="AC16" s="1">
         <v>19</v>
       </c>
-      <c r="AD16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="3" t="s">
+      <c r="AD16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AG16" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH16" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="3" t="s">
+      <c r="AG16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AK16" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL16" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM16" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN16" s="3" t="s">
+      <c r="AK16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN16" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AO16" s="3" t="s">
+      <c r="AO16" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AP16" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ16" s="3" t="s">
+      <c r="AP16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AR16" s="3">
+      <c r="AR16" s="1">
         <v>2</v>
       </c>
-      <c r="AS16" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AT16" s="3">
+      <c r="AS16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT16" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:46" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="1">
         <v>51</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H17" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L17" s="3" t="s">
+      <c r="G17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="M17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P17" s="3" t="s">
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P17" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="Q17" s="3" t="s">
+      <c r="Q17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="R17" s="3" t="s">
+      <c r="R17" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="S17" s="3">
+      <c r="S17" s="1">
         <v>97</v>
       </c>
-      <c r="T17" s="3">
+      <c r="T17" s="1">
         <v>51</v>
       </c>
-      <c r="U17" s="3" t="s">
+      <c r="U17" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="V17" s="3">
+      <c r="V17" s="1">
         <v>152</v>
       </c>
-      <c r="W17" s="3" t="s">
+      <c r="W17" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="X17" s="3">
+      <c r="X17" s="1">
         <v>200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Y17" s="1">
         <v>200</v>
       </c>
-      <c r="Z17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="3" t="s">
+      <c r="Z17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AC17" s="1">
         <v>19</v>
       </c>
-      <c r="AD17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="3" t="s">
+      <c r="AD17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="AG17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="3" t="s">
+      <c r="AG17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AK17" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL17" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM17" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN17" s="3" t="s">
+      <c r="AK17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN17" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AO17" s="3" t="s">
+      <c r="AO17" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AP17" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ17" s="3" t="s">
+      <c r="AP17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AR17" s="3">
+      <c r="AR17" s="1">
         <v>2</v>
       </c>
-      <c r="AS17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AT17" s="3">
+      <c r="AS17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT17" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:46" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="1">
         <v>52</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3" t="s">
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H18" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L18" s="3" t="s">
+      <c r="H18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="M18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P18" s="3" t="s">
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P18" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="Q18" s="3" t="s">
+      <c r="Q18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="R18" s="3" t="s">
+      <c r="R18" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S18" s="1">
         <v>98</v>
       </c>
-      <c r="T18" s="3">
+      <c r="T18" s="1">
         <v>52</v>
       </c>
-      <c r="U18" s="3" t="s">
+      <c r="U18" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="V18" s="3">
+      <c r="V18" s="1">
         <v>96</v>
       </c>
-      <c r="W18" s="3" t="s">
+      <c r="W18" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="3">
+      <c r="X18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="1">
         <v>181.82</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AA18" s="1">
         <v>200</v>
       </c>
-      <c r="AB18" s="3" t="s">
+      <c r="AB18" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AC18" s="1">
         <v>2</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AD18" s="1">
         <v>0.1</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AE18" s="1">
         <v>18.18</v>
       </c>
-      <c r="AF18" s="3" t="s">
+      <c r="AF18" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AG18" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH18" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="3" t="s">
+      <c r="AG18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AK18" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL18" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM18" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN18" s="3" t="s">
+      <c r="AK18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN18" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AO18" s="3" t="s">
+      <c r="AO18" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="AP18" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ18" s="3" t="s">
+      <c r="AP18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AR18" s="3">
+      <c r="AR18" s="1">
         <v>2</v>
       </c>
-      <c r="AS18" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AT18" s="3">
+      <c r="AS18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT18" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:46" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="1">
         <v>52</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E19" s="3">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3" t="s">
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H19" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L19" s="3" t="s">
+      <c r="H19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="M19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N19" s="3">
-        <v>0</v>
-      </c>
-      <c r="O19" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P19" s="3" t="s">
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P19" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="Q19" s="3" t="s">
+      <c r="Q19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="R19" s="3" t="s">
+      <c r="R19" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="S19" s="3">
+      <c r="S19" s="1">
         <v>99</v>
       </c>
-      <c r="T19" s="3">
+      <c r="T19" s="1">
         <v>52</v>
       </c>
-      <c r="U19" s="3" t="s">
+      <c r="U19" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="V19" s="3">
+      <c r="V19" s="1">
         <v>216</v>
       </c>
-      <c r="W19" s="3" t="s">
+      <c r="W19" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="X19" s="3">
+      <c r="X19" s="1">
         <v>181.82</v>
       </c>
-      <c r="Y19" s="3">
+      <c r="Y19" s="1">
         <v>200</v>
       </c>
-      <c r="Z19" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="3" t="s">
+      <c r="Z19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AC19" s="3">
+      <c r="AC19" s="1">
         <v>2</v>
       </c>
-      <c r="AD19" s="3">
+      <c r="AD19" s="1">
         <v>0.1</v>
       </c>
-      <c r="AE19" s="3">
+      <c r="AE19" s="1">
         <v>18.18</v>
       </c>
-      <c r="AF19" s="3" t="s">
+      <c r="AF19" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AG19" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH19" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI19" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ19" s="3" t="s">
+      <c r="AG19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AK19" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL19" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM19" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN19" s="3" t="s">
+      <c r="AK19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN19" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AO19" s="3" t="s">
+      <c r="AO19" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AP19" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ19" s="3" t="s">
+      <c r="AP19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AR19" s="3">
+      <c r="AR19" s="1">
         <v>2</v>
       </c>
-      <c r="AS19" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AT19" s="3">
+      <c r="AS19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT19" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:46" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="1">
         <v>53</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3" t="s">
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="H20" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L20" s="3" t="s">
+      <c r="H20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="M20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P20" s="3" t="s">
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P20" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="Q20" s="3" t="s">
+      <c r="Q20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="R20" s="3" t="s">
+      <c r="R20" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="S20" s="3">
+      <c r="S20" s="1">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="T20" s="1">
         <v>53</v>
       </c>
-      <c r="U20" s="3" t="s">
+      <c r="U20" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="V20" s="3">
+      <c r="V20" s="1">
         <v>152</v>
       </c>
-      <c r="W20" s="3" t="s">
+      <c r="W20" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="3">
+      <c r="X20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="1">
         <v>219.78</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AA20" s="1">
         <v>241.76</v>
       </c>
-      <c r="AB20" s="3" t="s">
+      <c r="AB20" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AC20" s="1">
         <v>5</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AD20" s="1">
         <v>0.1</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AE20" s="1">
         <v>21.98</v>
       </c>
-      <c r="AF20" s="3" t="s">
+      <c r="AF20" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="AG20" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH20" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ20" s="3" t="s">
+      <c r="AG20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AK20" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL20" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM20" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN20" s="3" t="s">
+      <c r="AK20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN20" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AO20" s="3" t="s">
+      <c r="AO20" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AP20" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ20" s="3" t="s">
+      <c r="AP20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AR20" s="3">
+      <c r="AR20" s="1">
         <v>2</v>
       </c>
-      <c r="AS20" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AT20" s="3">
+      <c r="AS20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT20" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:46" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="1">
         <v>53</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3" t="s">
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="H21" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L21" s="3" t="s">
+      <c r="H21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="M21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P21" s="3" t="s">
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P21" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="Q21" s="3" t="s">
+      <c r="Q21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="R21" s="3" t="s">
+      <c r="R21" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="1">
         <v>101</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="1">
         <v>53</v>
       </c>
-      <c r="U21" s="3" t="s">
+      <c r="U21" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="1">
         <v>90</v>
       </c>
-      <c r="W21" s="3" t="s">
+      <c r="W21" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="X21" s="3">
+      <c r="X21" s="1">
         <v>219.78</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="1">
         <v>241.76</v>
       </c>
-      <c r="Z21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="3" t="s">
+      <c r="Z21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AC21" s="1">
         <v>5</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AD21" s="1">
         <v>0.1</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AE21" s="1">
         <v>21.98</v>
       </c>
-      <c r="AF21" s="3" t="s">
+      <c r="AF21" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AG21" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH21" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ21" s="3" t="s">
+      <c r="AG21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AK21" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL21" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM21" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN21" s="3" t="s">
+      <c r="AK21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN21" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AO21" s="3" t="s">
+      <c r="AO21" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AP21" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ21" s="3" t="s">
+      <c r="AP21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AR21" s="3">
+      <c r="AR21" s="1">
         <v>2</v>
       </c>
-      <c r="AS21" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AT21" s="3">
+      <c r="AS21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT21" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:46" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="1">
         <v>43</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3" t="s">
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H22" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L22" s="3" t="s">
+      <c r="G22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="M22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P22" s="3" t="s">
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P22" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="Q22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="R22" s="3" t="s">
+      <c r="R22" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="S22" s="3">
+      <c r="S22" s="1">
         <v>79</v>
       </c>
-      <c r="T22" s="3">
+      <c r="T22" s="1">
         <v>43</v>
       </c>
-      <c r="U22" s="3" t="s">
+      <c r="U22" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="V22" s="3">
+      <c r="V22" s="1">
         <v>146</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="3">
+      <c r="W22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="X22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="1">
         <v>500</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AA22" s="1">
         <v>500</v>
       </c>
-      <c r="AB22" s="3" t="s">
+      <c r="AB22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AC22" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="3" t="s">
+      <c r="AC22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AG22" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH22" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ22" s="3" t="s">
+      <c r="AG22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AK22" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL22" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM22" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN22" s="3" t="s">
+      <c r="AK22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN22" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AO22" s="3" t="s">
+      <c r="AO22" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AP22" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ22" s="3" t="s">
+      <c r="AP22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AR22" s="3">
+      <c r="AR22" s="1">
         <v>2</v>
       </c>
-      <c r="AS22" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AT22" s="3">
+      <c r="AS22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT22" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:46" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="1">
         <v>43</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3" t="s">
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H23" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L23" s="3" t="s">
+      <c r="G23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="M23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P23" s="3" t="s">
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P23" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="Q23" s="3" t="s">
+      <c r="Q23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="R23" s="3" t="s">
+      <c r="R23" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="S23" s="3">
+      <c r="S23" s="1">
         <v>80</v>
       </c>
-      <c r="T23" s="3">
+      <c r="T23" s="1">
         <v>43</v>
       </c>
-      <c r="U23" s="3" t="s">
+      <c r="U23" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="V23" s="3">
+      <c r="V23" s="1">
         <v>215</v>
       </c>
-      <c r="W23" s="3" t="s">
+      <c r="W23" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="X23" s="3">
+      <c r="X23" s="1">
         <v>500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Y23" s="1">
         <v>500</v>
       </c>
-      <c r="Z23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="3" t="s">
+      <c r="Z23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AC23" s="1">
         <v>19</v>
       </c>
-      <c r="AD23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF23" s="3" t="s">
+      <c r="AD23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AG23" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH23" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ23" s="3" t="s">
+      <c r="AG23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AK23" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL23" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM23" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN23" s="3" t="s">
+      <c r="AK23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN23" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AO23" s="3" t="s">
+      <c r="AO23" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AP23" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ23" s="3" t="s">
+      <c r="AP23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AR23" s="3">
+      <c r="AR23" s="1">
         <v>2</v>
       </c>
-      <c r="AS23" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AT23" s="3">
+      <c r="AS23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT23" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:46" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="1">
         <v>37</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3" t="s">
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H24" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L24" s="3" t="s">
+      <c r="G24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="M24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P24" s="3" t="s">
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P24" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="Q24" s="3" t="s">
+      <c r="Q24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="R24" s="3" t="s">
+      <c r="R24" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="S24" s="3">
+      <c r="S24" s="1">
         <v>67</v>
       </c>
-      <c r="T24" s="3">
+      <c r="T24" s="1">
         <v>37</v>
       </c>
-      <c r="U24" s="3" t="s">
+      <c r="U24" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="V24" s="3">
+      <c r="V24" s="1">
         <v>152</v>
       </c>
-      <c r="W24" s="3" t="s">
+      <c r="W24" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="3">
+      <c r="X24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="1">
         <v>600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AA24" s="1">
         <v>600</v>
       </c>
-      <c r="AB24" s="3" t="s">
+      <c r="AB24" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AC24" s="1">
         <v>19</v>
       </c>
-      <c r="AD24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="3" t="s">
+      <c r="AD24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="AG24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ24" s="3" t="s">
+      <c r="AG24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AK24" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL24" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM24" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN24" s="3" t="s">
+      <c r="AK24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN24" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AO24" s="3" t="s">
+      <c r="AO24" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="AP24" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ24" s="3" t="s">
+      <c r="AP24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AR24" s="3">
+      <c r="AR24" s="1">
         <v>2</v>
       </c>
-      <c r="AS24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AT24" s="3">
+      <c r="AS24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT24" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:46" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="1">
         <v>37</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E25" s="3">
-        <v>0</v>
-      </c>
-      <c r="F25" s="3" t="s">
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H25" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L25" s="3" t="s">
+      <c r="G25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M25" s="3" t="s">
+      <c r="M25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N25" s="3">
-        <v>0</v>
-      </c>
-      <c r="O25" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P25" s="3" t="s">
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P25" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="Q25" s="3" t="s">
+      <c r="Q25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="R25" s="3" t="s">
+      <c r="R25" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="S25" s="3">
+      <c r="S25" s="1">
         <v>68</v>
       </c>
-      <c r="T25" s="3">
+      <c r="T25" s="1">
         <v>37</v>
       </c>
-      <c r="U25" s="3" t="s">
+      <c r="U25" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="V25" s="3">
+      <c r="V25" s="1">
         <v>90</v>
       </c>
-      <c r="W25" s="3" t="s">
+      <c r="W25" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="X25" s="3">
+      <c r="X25" s="1">
         <v>600</v>
       </c>
-      <c r="Y25" s="3">
+      <c r="Y25" s="1">
         <v>600</v>
       </c>
-      <c r="Z25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="3" t="s">
+      <c r="Z25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AC25" s="3">
+      <c r="AC25" s="1">
         <v>19</v>
       </c>
-      <c r="AD25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="3" t="s">
+      <c r="AD25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AG25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ25" s="3" t="s">
+      <c r="AG25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AK25" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL25" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM25" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN25" s="3" t="s">
+      <c r="AK25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN25" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AO25" s="3" t="s">
+      <c r="AO25" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="AP25" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ25" s="3" t="s">
+      <c r="AP25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AR25" s="3">
+      <c r="AR25" s="1">
         <v>2</v>
       </c>
-      <c r="AS25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AT25" s="3">
+      <c r="AS25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT25" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:46" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="1">
         <v>38</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3" t="s">
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H26" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L26" s="3" t="s">
+      <c r="G26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M26" s="3" t="s">
+      <c r="M26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P26" s="3" t="s">
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P26" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="Q26" s="3" t="s">
+      <c r="Q26" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="R26" s="3" t="s">
+      <c r="R26" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="S26" s="3">
+      <c r="S26" s="1">
         <v>69</v>
       </c>
-      <c r="T26" s="3">
+      <c r="T26" s="1">
         <v>38</v>
       </c>
-      <c r="U26" s="3" t="s">
+      <c r="U26" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="V26" s="3">
+      <c r="V26" s="1">
         <v>160</v>
       </c>
-      <c r="W26" s="3" t="s">
+      <c r="W26" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="3">
+      <c r="X26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="1">
         <v>500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AA26" s="1">
         <v>500</v>
       </c>
-      <c r="AB26" s="3" t="s">
+      <c r="AB26" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AC26" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF26" s="3" t="s">
+      <c r="AC26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AG26" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH26" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ26" s="3" t="s">
+      <c r="AG26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AK26" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL26" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM26" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN26" s="3" t="s">
+      <c r="AK26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN26" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AO26" s="3" t="s">
+      <c r="AO26" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="AP26" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ26" s="3" t="s">
+      <c r="AP26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AR26" s="3">
+      <c r="AR26" s="1">
         <v>2</v>
       </c>
-      <c r="AS26" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AT26" s="3">
+      <c r="AS26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT26" s="1">
         <v>10</v>
       </c>
     </row>
